--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_extended.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_extended.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -425,13 +428,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>72.8901996370236</v>
+        <v>73.2521520050388</v>
       </c>
       <c r="C2" t="n">
-        <v>71.5777752390063</v>
+        <v>71.9949414668665</v>
       </c>
       <c r="D2" t="n">
-        <v>74.2026240350409</v>
+        <v>74.5093625432112</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -595,13 +598,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>83.6453946118959</v>
+        <v>77.8161610475524</v>
       </c>
       <c r="C12" t="n">
-        <v>80.2431838294324</v>
+        <v>73.4880368683622</v>
       </c>
       <c r="D12" t="n">
-        <v>87.0476053943595</v>
+        <v>82.1442852267426</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -612,13 +615,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>66.8230871348926</v>
+        <v>83.6453946118959</v>
       </c>
       <c r="C13" t="n">
-        <v>64.1422516110505</v>
+        <v>80.2431838294324</v>
       </c>
       <c r="D13" t="n">
-        <v>69.5039226587348</v>
+        <v>87.0476053943595</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -626,220 +629,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>68.7781785392245</v>
+        <v>66.8519075928928</v>
       </c>
       <c r="C14" t="n">
-        <v>67.4143626937546</v>
+        <v>64.1770033971037</v>
       </c>
       <c r="D14" t="n">
-        <v>70.1419943846945</v>
+        <v>69.526811788682</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>70.5285638013881</v>
+        <v>68.8425443169969</v>
       </c>
       <c r="C15" t="n">
-        <v>68.4632866559698</v>
+        <v>67.5315267062107</v>
       </c>
       <c r="D15" t="n">
-        <v>72.5938409468065</v>
+        <v>70.1535619277831</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>69.475522263007</v>
+        <v>70.5285638013881</v>
       </c>
       <c r="C16" t="n">
-        <v>64.3157871238705</v>
+        <v>68.4632866559698</v>
       </c>
       <c r="D16" t="n">
-        <v>74.6352574021434</v>
+        <v>72.5938409468065</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>72.6702827168741</v>
+        <v>69.475522263007</v>
       </c>
       <c r="C17" t="n">
-        <v>68.2809703112692</v>
+        <v>64.3157871238705</v>
       </c>
       <c r="D17" t="n">
-        <v>77.0595951224791</v>
+        <v>74.6352574021434</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>81.8362178322489</v>
+        <v>72.6702827168741</v>
       </c>
       <c r="C18" t="n">
-        <v>77.13171043943</v>
+        <v>68.2809703112692</v>
       </c>
       <c r="D18" t="n">
-        <v>86.5407252250679</v>
+        <v>77.0595951224791</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>68.2472341268906</v>
+        <v>81.8362178322489</v>
       </c>
       <c r="C19" t="n">
-        <v>61.9056723646586</v>
+        <v>77.13171043943</v>
       </c>
       <c r="D19" t="n">
-        <v>74.5887958891225</v>
+        <v>86.5407252250679</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>69.3017119017655</v>
+        <v>68.2472341268906</v>
       </c>
       <c r="C20" t="n">
-        <v>63.0484875839777</v>
+        <v>61.9056723646586</v>
       </c>
       <c r="D20" t="n">
-        <v>75.5549362195534</v>
+        <v>74.5887958891225</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>67.8268612337158</v>
+        <v>69.3017119017655</v>
       </c>
       <c r="C21" t="n">
-        <v>62.6542820174401</v>
+        <v>63.0484875839777</v>
       </c>
       <c r="D21" t="n">
-        <v>72.9994404499915</v>
+        <v>75.5549362195534</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>60.7294943527839</v>
+        <v>67.8268612337158</v>
       </c>
       <c r="C22" t="n">
-        <v>53.5350950712599</v>
+        <v>62.6542820174401</v>
       </c>
       <c r="D22" t="n">
-        <v>67.9238936343079</v>
+        <v>72.9994404499915</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>59.6338222778783</v>
+        <v>60.7294943527839</v>
       </c>
       <c r="C23" t="n">
-        <v>56.3808541183718</v>
+        <v>53.5350950712599</v>
       </c>
       <c r="D23" t="n">
-        <v>62.8867904373849</v>
+        <v>67.9238936343079</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>83.5435642223446</v>
+        <v>59.6338222778783</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2571821642304</v>
+        <v>56.3808541183718</v>
       </c>
       <c r="D24" t="n">
-        <v>86.8299462804588</v>
+        <v>62.8867904373849</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>66.6184246864263</v>
+        <v>69.6488348777617</v>
       </c>
       <c r="C25" t="n">
-        <v>63.9480618503405</v>
+        <v>64.8861572176925</v>
       </c>
       <c r="D25" t="n">
-        <v>69.2887875225121</v>
+        <v>74.4115125378309</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>67.458701063589</v>
+        <v>83.5435642223446</v>
       </c>
       <c r="C26" t="n">
-        <v>66.0771349747722</v>
+        <v>80.2571821642304</v>
       </c>
       <c r="D26" t="n">
-        <v>68.8402671524059</v>
+        <v>86.8299462804588</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -847,16 +850,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>70.4508419337317</v>
+        <v>66.6147996711199</v>
       </c>
       <c r="C27" t="n">
-        <v>68.3660878707716</v>
+        <v>63.9496894064646</v>
       </c>
       <c r="D27" t="n">
-        <v>72.5355959966917</v>
+        <v>69.2799099357752</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -864,172 +867,223 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>72.1142085765911</v>
+        <v>67.8962900505902</v>
       </c>
       <c r="C28" t="n">
-        <v>66.6528572283629</v>
+        <v>66.5676046519813</v>
       </c>
       <c r="D28" t="n">
-        <v>77.5755599248192</v>
+        <v>69.2249754491991</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>70.3497066202746</v>
+        <v>70.4508419337317</v>
       </c>
       <c r="C29" t="n">
-        <v>65.6187145461094</v>
+        <v>68.3660878707716</v>
       </c>
       <c r="D29" t="n">
-        <v>75.0806986944398</v>
+        <v>72.5355959966917</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>78.3268703968936</v>
+        <v>72.1142085765911</v>
       </c>
       <c r="C30" t="n">
-        <v>73.8335950688704</v>
+        <v>66.6528572283629</v>
       </c>
       <c r="D30" t="n">
-        <v>82.8201457249168</v>
+        <v>77.5755599248192</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>60.0872308708005</v>
+        <v>70.3497066202746</v>
       </c>
       <c r="C31" t="n">
-        <v>53.2312897323587</v>
+        <v>65.6187145461094</v>
       </c>
       <c r="D31" t="n">
-        <v>66.9431720092423</v>
+        <v>75.0806986944398</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>77.1316184585964</v>
+        <v>78.3268703968936</v>
       </c>
       <c r="C32" t="n">
-        <v>71.5436729682546</v>
+        <v>73.8335950688704</v>
       </c>
       <c r="D32" t="n">
-        <v>82.7195639489383</v>
+        <v>82.8201457249168</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>69.4297739409478</v>
+        <v>60.0872308708005</v>
       </c>
       <c r="C33" t="n">
-        <v>64.1928649292208</v>
+        <v>53.2312897323587</v>
       </c>
       <c r="D33" t="n">
-        <v>74.6666829526747</v>
+        <v>66.9431720092423</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>62.0496838456264</v>
+        <v>77.1316184585964</v>
       </c>
       <c r="C34" t="n">
-        <v>55.0380913885636</v>
+        <v>71.5436729682546</v>
       </c>
       <c r="D34" t="n">
-        <v>69.0612763026893</v>
+        <v>82.7195639489383</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>56.6875590763408</v>
+        <v>69.4297739409478</v>
       </c>
       <c r="C35" t="n">
-        <v>53.3541865973249</v>
+        <v>64.1928649292208</v>
       </c>
       <c r="D35" t="n">
-        <v>60.0209315553567</v>
+        <v>74.6666829526747</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>82.7698388192677</v>
+        <v>62.0496838456264</v>
       </c>
       <c r="C36" t="n">
-        <v>79.4089205880929</v>
+        <v>55.0380913885636</v>
       </c>
       <c r="D36" t="n">
-        <v>86.1307570504425</v>
+        <v>69.0612763026893</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="n">
+        <v>56.6875590763408</v>
+      </c>
+      <c r="C37" t="n">
+        <v>53.3541865973249</v>
+      </c>
+      <c r="D37" t="n">
+        <v>60.0209315553567</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="n">
+        <v>73.943438710807</v>
+      </c>
+      <c r="C38" t="n">
+        <v>69.1639222897722</v>
+      </c>
+      <c r="D38" t="n">
+        <v>78.7229551318417</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="n">
-        <v>64.5050745275746</v>
-      </c>
-      <c r="C37" t="n">
-        <v>61.8439367020719</v>
-      </c>
-      <c r="D37" t="n">
-        <v>67.1662123530773</v>
-      </c>
-      <c r="E37" t="s">
-        <v>19</v>
+      <c r="B39" t="n">
+        <v>82.7698388192677</v>
+      </c>
+      <c r="C39" t="n">
+        <v>79.4089205880929</v>
+      </c>
+      <c r="D39" t="n">
+        <v>86.1307570504425</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="n">
+        <v>64.4913838947275</v>
+      </c>
+      <c r="C40" t="n">
+        <v>61.835322202088</v>
+      </c>
+      <c r="D40" t="n">
+        <v>67.147445587367</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_extended.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_extended.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -615,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>83.6453946118959</v>
+        <v>66.8519075928928</v>
       </c>
       <c r="C13" t="n">
-        <v>80.2431838294324</v>
+        <v>64.1770033971037</v>
       </c>
       <c r="D13" t="n">
-        <v>87.0476053943595</v>
+        <v>69.526811788682</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -629,220 +626,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>66.8519075928928</v>
+        <v>68.8425443169969</v>
       </c>
       <c r="C14" t="n">
-        <v>64.1770033971037</v>
+        <v>67.5315267062107</v>
       </c>
       <c r="D14" t="n">
-        <v>69.526811788682</v>
+        <v>70.1535619277831</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>68.8425443169969</v>
+        <v>70.5285638013881</v>
       </c>
       <c r="C15" t="n">
-        <v>67.5315267062107</v>
+        <v>68.4632866559698</v>
       </c>
       <c r="D15" t="n">
-        <v>70.1535619277831</v>
+        <v>72.5938409468065</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>70.5285638013881</v>
+        <v>69.475522263007</v>
       </c>
       <c r="C16" t="n">
-        <v>68.4632866559698</v>
+        <v>64.3157871238705</v>
       </c>
       <c r="D16" t="n">
-        <v>72.5938409468065</v>
+        <v>74.6352574021434</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>69.475522263007</v>
+        <v>72.6702827168741</v>
       </c>
       <c r="C17" t="n">
-        <v>64.3157871238705</v>
+        <v>68.2809703112692</v>
       </c>
       <c r="D17" t="n">
-        <v>74.6352574021434</v>
+        <v>77.0595951224791</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>72.6702827168741</v>
+        <v>81.8362178322489</v>
       </c>
       <c r="C18" t="n">
-        <v>68.2809703112692</v>
+        <v>77.13171043943</v>
       </c>
       <c r="D18" t="n">
-        <v>77.0595951224791</v>
+        <v>86.5407252250679</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>81.8362178322489</v>
+        <v>68.2472341268906</v>
       </c>
       <c r="C19" t="n">
-        <v>77.13171043943</v>
+        <v>61.9056723646586</v>
       </c>
       <c r="D19" t="n">
-        <v>86.5407252250679</v>
+        <v>74.5887958891225</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>68.2472341268906</v>
+        <v>69.3017119017655</v>
       </c>
       <c r="C20" t="n">
-        <v>61.9056723646586</v>
+        <v>63.0484875839777</v>
       </c>
       <c r="D20" t="n">
-        <v>74.5887958891225</v>
+        <v>75.5549362195534</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>69.3017119017655</v>
+        <v>67.8268612337158</v>
       </c>
       <c r="C21" t="n">
-        <v>63.0484875839777</v>
+        <v>62.6542820174401</v>
       </c>
       <c r="D21" t="n">
-        <v>75.5549362195534</v>
+        <v>72.9994404499915</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>67.8268612337158</v>
+        <v>60.7294943527839</v>
       </c>
       <c r="C22" t="n">
-        <v>62.6542820174401</v>
+        <v>53.5350950712599</v>
       </c>
       <c r="D22" t="n">
-        <v>72.9994404499915</v>
+        <v>67.9238936343079</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>60.7294943527839</v>
+        <v>59.6338222778783</v>
       </c>
       <c r="C23" t="n">
-        <v>53.5350950712599</v>
+        <v>56.3808541183718</v>
       </c>
       <c r="D23" t="n">
-        <v>67.9238936343079</v>
+        <v>62.8867904373849</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>59.6338222778783</v>
+        <v>69.6488348777617</v>
       </c>
       <c r="C24" t="n">
-        <v>56.3808541183718</v>
+        <v>64.8861572176925</v>
       </c>
       <c r="D24" t="n">
-        <v>62.8867904373849</v>
+        <v>74.4115125378309</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>69.6488348777617</v>
+        <v>66.6147996711199</v>
       </c>
       <c r="C25" t="n">
-        <v>64.8861572176925</v>
+        <v>63.9496894064646</v>
       </c>
       <c r="D25" t="n">
-        <v>74.4115125378309</v>
+        <v>69.2799099357752</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>83.5435642223446</v>
+        <v>67.8962900505902</v>
       </c>
       <c r="C26" t="n">
-        <v>80.2571821642304</v>
+        <v>66.5676046519813</v>
       </c>
       <c r="D26" t="n">
-        <v>86.8299462804588</v>
+        <v>69.2249754491991</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -850,16 +847,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>66.6147996711199</v>
+        <v>70.4508419337317</v>
       </c>
       <c r="C27" t="n">
-        <v>63.9496894064646</v>
+        <v>68.3660878707716</v>
       </c>
       <c r="D27" t="n">
-        <v>69.2799099357752</v>
+        <v>72.5355959966917</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -867,223 +864,172 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>67.8962900505902</v>
+        <v>72.1142085765911</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5676046519813</v>
+        <v>66.6528572283629</v>
       </c>
       <c r="D28" t="n">
-        <v>69.2249754491991</v>
+        <v>77.5755599248192</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>70.4508419337317</v>
+        <v>70.3497066202746</v>
       </c>
       <c r="C29" t="n">
-        <v>68.3660878707716</v>
+        <v>65.6187145461094</v>
       </c>
       <c r="D29" t="n">
-        <v>72.5355959966917</v>
+        <v>75.0806986944398</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>72.1142085765911</v>
+        <v>78.3268703968936</v>
       </c>
       <c r="C30" t="n">
-        <v>66.6528572283629</v>
+        <v>73.8335950688704</v>
       </c>
       <c r="D30" t="n">
-        <v>77.5755599248192</v>
+        <v>82.8201457249168</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>70.3497066202746</v>
+        <v>60.0872308708005</v>
       </c>
       <c r="C31" t="n">
-        <v>65.6187145461094</v>
+        <v>53.2312897323587</v>
       </c>
       <c r="D31" t="n">
-        <v>75.0806986944398</v>
+        <v>66.9431720092423</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>78.3268703968936</v>
+        <v>77.1316184585964</v>
       </c>
       <c r="C32" t="n">
-        <v>73.8335950688704</v>
+        <v>71.5436729682546</v>
       </c>
       <c r="D32" t="n">
-        <v>82.8201457249168</v>
+        <v>82.7195639489383</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
-        <v>60.0872308708005</v>
+        <v>69.4297739409478</v>
       </c>
       <c r="C33" t="n">
-        <v>53.2312897323587</v>
+        <v>64.1928649292208</v>
       </c>
       <c r="D33" t="n">
-        <v>66.9431720092423</v>
+        <v>74.6666829526747</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>77.1316184585964</v>
+        <v>62.0496838456264</v>
       </c>
       <c r="C34" t="n">
-        <v>71.5436729682546</v>
+        <v>55.0380913885636</v>
       </c>
       <c r="D34" t="n">
-        <v>82.7195639489383</v>
+        <v>69.0612763026893</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>69.4297739409478</v>
+        <v>56.6875590763408</v>
       </c>
       <c r="C35" t="n">
-        <v>64.1928649292208</v>
+        <v>53.3541865973249</v>
       </c>
       <c r="D35" t="n">
-        <v>74.6666829526747</v>
+        <v>60.0209315553567</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>62.0496838456264</v>
+        <v>73.943438710807</v>
       </c>
       <c r="C36" t="n">
-        <v>55.0380913885636</v>
+        <v>69.1639222897722</v>
       </c>
       <c r="D36" t="n">
-        <v>69.0612763026893</v>
+        <v>78.7229551318417</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>56.6875590763408</v>
+        <v>64.4913838947275</v>
       </c>
       <c r="C37" t="n">
-        <v>53.3541865973249</v>
+        <v>61.835322202088</v>
       </c>
       <c r="D37" t="n">
-        <v>60.0209315553567</v>
+        <v>67.147445587367</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="n">
-        <v>73.943438710807</v>
-      </c>
-      <c r="C38" t="n">
-        <v>69.1639222897722</v>
-      </c>
-      <c r="D38" t="n">
-        <v>78.7229551318417</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="n">
-        <v>82.7698388192677</v>
-      </c>
-      <c r="C39" t="n">
-        <v>79.4089205880929</v>
-      </c>
-      <c r="D39" t="n">
-        <v>86.1307570504425</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" t="n">
-        <v>64.4913838947275</v>
-      </c>
-      <c r="C40" t="n">
-        <v>61.835322202088</v>
-      </c>
-      <c r="D40" t="n">
-        <v>67.147445587367</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_extended.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_extended.xlsx
@@ -32,7 +32,9 @@
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">**Global**:&lt;br&gt;Implemented by&lt;br&gt;All other countries</t>
+    <t xml:space="preserve">**Global**: 
+Implemented by 
+All other countries</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -68,10 +70,14 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">**High-income**:&lt;br&gt;All other HICs and&lt;br&gt;not some MICs (such as China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**International**:&lt;br&gt;Some countries (e.g. EU, UK, Brazil)&lt;br&gt;and not others (e.g. U.S., China)</t>
+    <t xml:space="preserve">**High-income**: 
+All other HICs and 
+not some MICs (such as China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**International**: 
+Some countries (e.g. EU, UK, Brazil) 
+and not others (e.g. U.S., China)</t>
   </si>
 </sst>
 </file>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_extended.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_extended.xlsx
@@ -32,9 +32,7 @@
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">**Global**: 
-Implemented by 
-All other countries</t>
+    <t xml:space="preserve">**Global**:&lt;br&gt;Implemented by&lt;br&gt;All other countries</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -70,14 +68,10 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">**High-income**: 
-All other HICs and 
-not some MICs (such as China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**International**: 
-Some countries (e.g. EU, UK, Brazil) 
-and not others (e.g. U.S., China)</t>
+    <t xml:space="preserve">**High-income**:&lt;br&gt;All other HICs and&lt;br&gt;not some MICs (such as China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**International**:&lt;br&gt;Some countries (e.g. EU, UK, Brazil)&lt;br&gt;and not others (e.g. U.S., China)</t>
   </si>
 </sst>
 </file>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_extended.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_extended.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -612,13 +615,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>66.8519075928928</v>
+        <v>83.6453946118959</v>
       </c>
       <c r="C13" t="n">
-        <v>64.1770033971037</v>
+        <v>80.2431838294324</v>
       </c>
       <c r="D13" t="n">
-        <v>69.526811788682</v>
+        <v>87.0476053943595</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -626,220 +629,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>68.8425443169969</v>
+        <v>66.8519075928928</v>
       </c>
       <c r="C14" t="n">
-        <v>67.5315267062107</v>
+        <v>64.1770033971037</v>
       </c>
       <c r="D14" t="n">
-        <v>70.1535619277831</v>
+        <v>69.526811788682</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>70.5285638013881</v>
+        <v>68.8425443169969</v>
       </c>
       <c r="C15" t="n">
-        <v>68.4632866559698</v>
+        <v>67.5315267062107</v>
       </c>
       <c r="D15" t="n">
-        <v>72.5938409468065</v>
+        <v>70.1535619277831</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>69.475522263007</v>
+        <v>70.5285638013881</v>
       </c>
       <c r="C16" t="n">
-        <v>64.3157871238705</v>
+        <v>68.4632866559698</v>
       </c>
       <c r="D16" t="n">
-        <v>74.6352574021434</v>
+        <v>72.5938409468065</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>72.6702827168741</v>
+        <v>69.475522263007</v>
       </c>
       <c r="C17" t="n">
-        <v>68.2809703112692</v>
+        <v>64.3157871238705</v>
       </c>
       <c r="D17" t="n">
-        <v>77.0595951224791</v>
+        <v>74.6352574021434</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>81.8362178322489</v>
+        <v>72.6702827168741</v>
       </c>
       <c r="C18" t="n">
-        <v>77.13171043943</v>
+        <v>68.2809703112692</v>
       </c>
       <c r="D18" t="n">
-        <v>86.5407252250679</v>
+        <v>77.0595951224791</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>68.2472341268906</v>
+        <v>81.8362178322489</v>
       </c>
       <c r="C19" t="n">
-        <v>61.9056723646586</v>
+        <v>77.13171043943</v>
       </c>
       <c r="D19" t="n">
-        <v>74.5887958891225</v>
+        <v>86.5407252250679</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>69.3017119017655</v>
+        <v>68.2472341268906</v>
       </c>
       <c r="C20" t="n">
-        <v>63.0484875839777</v>
+        <v>61.9056723646586</v>
       </c>
       <c r="D20" t="n">
-        <v>75.5549362195534</v>
+        <v>74.5887958891225</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>67.8268612337158</v>
+        <v>69.3017119017655</v>
       </c>
       <c r="C21" t="n">
-        <v>62.6542820174401</v>
+        <v>63.0484875839777</v>
       </c>
       <c r="D21" t="n">
-        <v>72.9994404499915</v>
+        <v>75.5549362195534</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>60.7294943527839</v>
+        <v>67.8268612337158</v>
       </c>
       <c r="C22" t="n">
-        <v>53.5350950712599</v>
+        <v>62.6542820174401</v>
       </c>
       <c r="D22" t="n">
-        <v>67.9238936343079</v>
+        <v>72.9994404499915</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>59.6338222778783</v>
+        <v>60.7294943527839</v>
       </c>
       <c r="C23" t="n">
-        <v>56.3808541183718</v>
+        <v>53.5350950712599</v>
       </c>
       <c r="D23" t="n">
-        <v>62.8867904373849</v>
+        <v>67.9238936343079</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>69.6488348777617</v>
+        <v>59.6338222778783</v>
       </c>
       <c r="C24" t="n">
-        <v>64.8861572176925</v>
+        <v>56.3808541183718</v>
       </c>
       <c r="D24" t="n">
-        <v>74.4115125378309</v>
+        <v>62.8867904373849</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>66.6147996711199</v>
+        <v>69.6488348777617</v>
       </c>
       <c r="C25" t="n">
-        <v>63.9496894064646</v>
+        <v>64.8861572176925</v>
       </c>
       <c r="D25" t="n">
-        <v>69.2799099357752</v>
+        <v>74.4115125378309</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>67.8962900505902</v>
+        <v>83.5435642223446</v>
       </c>
       <c r="C26" t="n">
-        <v>66.5676046519813</v>
+        <v>80.2571821642304</v>
       </c>
       <c r="D26" t="n">
-        <v>69.2249754491991</v>
+        <v>86.8299462804588</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -847,16 +850,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>70.4508419337317</v>
+        <v>66.6147996711199</v>
       </c>
       <c r="C27" t="n">
-        <v>68.3660878707716</v>
+        <v>63.9496894064646</v>
       </c>
       <c r="D27" t="n">
-        <v>72.5355959966917</v>
+        <v>69.2799099357752</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -864,172 +867,223 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>72.1142085765911</v>
+        <v>67.8962900505902</v>
       </c>
       <c r="C28" t="n">
-        <v>66.6528572283629</v>
+        <v>66.5676046519813</v>
       </c>
       <c r="D28" t="n">
-        <v>77.5755599248192</v>
+        <v>69.2249754491991</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>70.3497066202746</v>
+        <v>70.4508419337317</v>
       </c>
       <c r="C29" t="n">
-        <v>65.6187145461094</v>
+        <v>68.3660878707716</v>
       </c>
       <c r="D29" t="n">
-        <v>75.0806986944398</v>
+        <v>72.5355959966917</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>78.3268703968936</v>
+        <v>72.1142085765911</v>
       </c>
       <c r="C30" t="n">
-        <v>73.8335950688704</v>
+        <v>66.6528572283629</v>
       </c>
       <c r="D30" t="n">
-        <v>82.8201457249168</v>
+        <v>77.5755599248192</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>60.0872308708005</v>
+        <v>70.3497066202746</v>
       </c>
       <c r="C31" t="n">
-        <v>53.2312897323587</v>
+        <v>65.6187145461094</v>
       </c>
       <c r="D31" t="n">
-        <v>66.9431720092423</v>
+        <v>75.0806986944398</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>77.1316184585964</v>
+        <v>78.3268703968936</v>
       </c>
       <c r="C32" t="n">
-        <v>71.5436729682546</v>
+        <v>73.8335950688704</v>
       </c>
       <c r="D32" t="n">
-        <v>82.7195639489383</v>
+        <v>82.8201457249168</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>69.4297739409478</v>
+        <v>60.0872308708005</v>
       </c>
       <c r="C33" t="n">
-        <v>64.1928649292208</v>
+        <v>53.2312897323587</v>
       </c>
       <c r="D33" t="n">
-        <v>74.6666829526747</v>
+        <v>66.9431720092423</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>62.0496838456264</v>
+        <v>77.1316184585964</v>
       </c>
       <c r="C34" t="n">
-        <v>55.0380913885636</v>
+        <v>71.5436729682546</v>
       </c>
       <c r="D34" t="n">
-        <v>69.0612763026893</v>
+        <v>82.7195639489383</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>56.6875590763408</v>
+        <v>69.4297739409478</v>
       </c>
       <c r="C35" t="n">
-        <v>53.3541865973249</v>
+        <v>64.1928649292208</v>
       </c>
       <c r="D35" t="n">
-        <v>60.0209315553567</v>
+        <v>74.6666829526747</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>73.943438710807</v>
+        <v>62.0496838456264</v>
       </c>
       <c r="C36" t="n">
-        <v>69.1639222897722</v>
+        <v>55.0380913885636</v>
       </c>
       <c r="D36" t="n">
-        <v>78.7229551318417</v>
+        <v>69.0612763026893</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="n">
+        <v>56.6875590763408</v>
+      </c>
+      <c r="C37" t="n">
+        <v>53.3541865973249</v>
+      </c>
+      <c r="D37" t="n">
+        <v>60.0209315553567</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="n">
+        <v>73.943438710807</v>
+      </c>
+      <c r="C38" t="n">
+        <v>69.1639222897722</v>
+      </c>
+      <c r="D38" t="n">
+        <v>78.7229551318417</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
+        <v>82.7698388192677</v>
+      </c>
+      <c r="C39" t="n">
+        <v>79.4089205880929</v>
+      </c>
+      <c r="D39" t="n">
+        <v>86.1307570504425</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="n">
         <v>64.4913838947275</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>61.835322202088</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>67.147445587367</v>
       </c>
-      <c r="E37" t="s">
-        <v>19</v>
+      <c r="E40" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
